--- a/Code/Results/Cases/Case_0_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_106/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0729022448543617</v>
+        <v>0.1249546554732959</v>
       </c>
       <c r="D2">
-        <v>0.04317040118633031</v>
+        <v>0.07506655530873729</v>
       </c>
       <c r="E2">
-        <v>0.0457580557751065</v>
+        <v>0.1169651680031922</v>
       </c>
       <c r="F2">
-        <v>1.265126411576048</v>
+        <v>2.544638687492935</v>
       </c>
       <c r="G2">
-        <v>1.010461173148528</v>
+        <v>1.862070362332105</v>
       </c>
       <c r="H2">
-        <v>0.6877802499637369</v>
+        <v>1.615786594251816</v>
       </c>
       <c r="I2">
-        <v>0.906357029675668</v>
+        <v>1.81938182001209</v>
       </c>
       <c r="J2">
-        <v>0.06466305210610912</v>
+        <v>0.1838533104454285</v>
       </c>
       <c r="K2">
-        <v>3.075887087084595</v>
+        <v>1.848937505168578</v>
       </c>
       <c r="L2">
-        <v>0.06230715963431166</v>
+        <v>0.1811597084840884</v>
       </c>
       <c r="M2">
-        <v>0.6426809590492439</v>
+        <v>0.5601606953080207</v>
       </c>
       <c r="N2">
-        <v>0.9627084333932174</v>
+        <v>1.898674655541754</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06679010956638365</v>
+        <v>0.1238174759113591</v>
       </c>
       <c r="D3">
-        <v>0.03916938500295686</v>
+        <v>0.07415474852088977</v>
       </c>
       <c r="E3">
-        <v>0.04440684750386659</v>
+        <v>0.1171315795202101</v>
       </c>
       <c r="F3">
-        <v>1.215701559963918</v>
+        <v>2.550860119042454</v>
       </c>
       <c r="G3">
-        <v>0.965559685184715</v>
+        <v>1.866020650484188</v>
       </c>
       <c r="H3">
-        <v>0.6756196053443517</v>
+        <v>1.623784785589635</v>
       </c>
       <c r="I3">
-        <v>0.8713952338995057</v>
+        <v>1.824092095109528</v>
       </c>
       <c r="J3">
-        <v>0.06511032891682689</v>
+        <v>0.1849019369038238</v>
       </c>
       <c r="K3">
-        <v>2.679975852628559</v>
+        <v>1.743109116010999</v>
       </c>
       <c r="L3">
-        <v>0.06244506367119484</v>
+        <v>0.1819805800203511</v>
       </c>
       <c r="M3">
-        <v>0.5658097736655776</v>
+        <v>0.5411742080338655</v>
       </c>
       <c r="N3">
-        <v>1.007354635778363</v>
+        <v>1.917608046639511</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06308881016627055</v>
+        <v>0.1231576442727516</v>
       </c>
       <c r="D4">
-        <v>0.036730488481588</v>
+        <v>0.07361085567465864</v>
       </c>
       <c r="E4">
-        <v>0.04361999195608313</v>
+        <v>0.1172664538558728</v>
       </c>
       <c r="F4">
-        <v>1.187776050484729</v>
+        <v>2.555955896324335</v>
       </c>
       <c r="G4">
-        <v>0.9402152359595277</v>
+        <v>1.869514367337644</v>
       </c>
       <c r="H4">
-        <v>0.6694172453222791</v>
+        <v>1.629411293329952</v>
       </c>
       <c r="I4">
-        <v>0.8516969870713993</v>
+        <v>1.827907525011085</v>
       </c>
       <c r="J4">
-        <v>0.06546474951274917</v>
+        <v>0.1856015611118771</v>
       </c>
       <c r="K4">
-        <v>2.438464219270799</v>
+        <v>1.678759324706846</v>
       </c>
       <c r="L4">
-        <v>0.06259008063443439</v>
+        <v>0.1825309249918128</v>
       </c>
       <c r="M4">
-        <v>0.5190235973702499</v>
+        <v>0.5297281085374266</v>
       </c>
       <c r="N4">
-        <v>1.036047959936219</v>
+        <v>1.929883204265575</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06159264571288503</v>
+        <v>0.1228984578522727</v>
       </c>
       <c r="D5">
-        <v>0.03574071380414523</v>
+        <v>0.07339326069487129</v>
       </c>
       <c r="E5">
-        <v>0.04330972142119016</v>
+        <v>0.1173296589518227</v>
       </c>
       <c r="F5">
-        <v>1.176971588232234</v>
+        <v>2.558353223306426</v>
       </c>
       <c r="G5">
-        <v>0.9304133366884315</v>
+        <v>1.871206451284905</v>
       </c>
       <c r="H5">
-        <v>0.6671924005401735</v>
+        <v>1.6318841044626</v>
       </c>
       <c r="I5">
-        <v>0.8440898703610671</v>
+        <v>1.829694457451097</v>
       </c>
       <c r="J5">
-        <v>0.06562865136668172</v>
+        <v>0.1859007030925586</v>
       </c>
       <c r="K5">
-        <v>2.340387926988683</v>
+        <v>1.652695740308644</v>
       </c>
       <c r="L5">
-        <v>0.06266398621504976</v>
+        <v>0.1827668659967419</v>
       </c>
       <c r="M5">
-        <v>0.5000504073256664</v>
+        <v>0.5251172456733784</v>
       </c>
       <c r="N5">
-        <v>1.048054434678015</v>
+        <v>1.935048938618984</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06134491916835572</v>
+        <v>0.1228560073209692</v>
       </c>
       <c r="D6">
-        <v>0.03557659964050686</v>
+        <v>0.07335737452680036</v>
       </c>
       <c r="E6">
-        <v>0.04325881742426851</v>
+        <v>0.1173406525620937</v>
       </c>
       <c r="F6">
-        <v>1.175211326113001</v>
+        <v>2.558770669087096</v>
       </c>
       <c r="G6">
-        <v>0.9288165789748035</v>
+        <v>1.871503621999679</v>
       </c>
       <c r="H6">
-        <v>0.6668408180502041</v>
+        <v>1.632305582967021</v>
       </c>
       <c r="I6">
-        <v>0.8428513938528255</v>
+        <v>1.830005193691697</v>
       </c>
       <c r="J6">
-        <v>0.06565702659360717</v>
+        <v>0.1859512238489618</v>
       </c>
       <c r="K6">
-        <v>2.324121513811065</v>
+        <v>1.648377570894695</v>
       </c>
       <c r="L6">
-        <v>0.06267714242649625</v>
+        <v>0.1828067493607222</v>
       </c>
       <c r="M6">
-        <v>0.4969051968832119</v>
+        <v>0.5243548561074647</v>
       </c>
       <c r="N6">
-        <v>1.050066816597788</v>
+        <v>1.935916582376741</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06306858424595418</v>
+        <v>0.1231541094585751</v>
       </c>
       <c r="D7">
-        <v>0.03671712391633264</v>
+        <v>0.07360790468835177</v>
       </c>
       <c r="E7">
-        <v>0.04361576599973738</v>
+        <v>0.1172672728596158</v>
       </c>
       <c r="F7">
-        <v>1.187628050775999</v>
+        <v>2.555986928858601</v>
       </c>
       <c r="G7">
-        <v>0.9400809563767609</v>
+        <v>1.869536101102369</v>
       </c>
       <c r="H7">
-        <v>0.6693860343055462</v>
+        <v>1.62944391383374</v>
       </c>
       <c r="I7">
-        <v>0.8515927254266842</v>
+        <v>1.827930684467802</v>
       </c>
       <c r="J7">
-        <v>0.06546688186313965</v>
+        <v>0.1856055385772066</v>
       </c>
       <c r="K7">
-        <v>2.437140215512102</v>
+        <v>1.678407174720689</v>
       </c>
       <c r="L7">
-        <v>0.0625910178510285</v>
+        <v>0.1825340596901146</v>
       </c>
       <c r="M7">
-        <v>0.5187673579585166</v>
+        <v>0.5296657077646429</v>
       </c>
       <c r="N7">
-        <v>1.036208623765479</v>
+        <v>1.929952209043048</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07078356173920497</v>
+        <v>0.1245546115778922</v>
       </c>
       <c r="D8">
-        <v>0.04178693784724175</v>
+        <v>0.07474887081955472</v>
       </c>
       <c r="E8">
-        <v>0.04528304088391089</v>
+        <v>0.1170157727416861</v>
       </c>
       <c r="F8">
-        <v>1.247561326957438</v>
+        <v>2.546519009115613</v>
       </c>
       <c r="G8">
-        <v>0.9944965623929534</v>
+        <v>1.863210558068673</v>
       </c>
       <c r="H8">
-        <v>0.6833153756336685</v>
+        <v>1.618395862972775</v>
       </c>
       <c r="I8">
-        <v>0.8939198849301206</v>
+        <v>1.820814252615399</v>
       </c>
       <c r="J8">
-        <v>0.06480034568268067</v>
+        <v>0.1842033135150487</v>
       </c>
       <c r="K8">
-        <v>2.939014425607752</v>
+        <v>1.812317979938598</v>
       </c>
       <c r="L8">
-        <v>0.0623419589429659</v>
+        <v>0.1814331429406124</v>
       </c>
       <c r="M8">
-        <v>0.6160829937336985</v>
+        <v>0.5535703848065339</v>
       </c>
       <c r="N8">
-        <v>0.97783158516485</v>
+        <v>1.90506802535916</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08636251076981694</v>
+        <v>0.1276039899410364</v>
       </c>
       <c r="D9">
-        <v>0.05188809077276346</v>
+        <v>0.07711166833826155</v>
       </c>
       <c r="E9">
-        <v>0.04891067635709057</v>
+        <v>0.1167811643025569</v>
       </c>
       <c r="F9">
-        <v>1.385926446732142</v>
+        <v>2.53808016458332</v>
       </c>
       <c r="G9">
-        <v>1.120477630866446</v>
+        <v>1.859295325353727</v>
       </c>
       <c r="H9">
-        <v>0.7214010446017625</v>
+        <v>1.602408361724443</v>
       </c>
       <c r="I9">
-        <v>0.9921464275361487</v>
+        <v>1.814189334050113</v>
       </c>
       <c r="J9">
-        <v>0.06415491139784635</v>
+        <v>0.1818952620481866</v>
       </c>
       <c r="K9">
-        <v>3.938460049188848</v>
+        <v>2.079869853577634</v>
       </c>
       <c r="L9">
-        <v>0.06234994146383599</v>
+        <v>0.1796408846926347</v>
       </c>
       <c r="M9">
-        <v>0.8107530989169902</v>
+        <v>0.6021172815760991</v>
       </c>
       <c r="N9">
-        <v>0.8739089957393915</v>
+        <v>1.86142417901382</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09814467505182733</v>
+        <v>0.1300271492730758</v>
       </c>
       <c r="D10">
-        <v>0.05943525716567422</v>
+        <v>0.07892256231782113</v>
       </c>
       <c r="E10">
-        <v>0.05182228621442775</v>
+        <v>0.1167653771946942</v>
       </c>
       <c r="F10">
-        <v>1.502722362803198</v>
+        <v>2.538064662788756</v>
       </c>
       <c r="G10">
-        <v>1.227211901669392</v>
+        <v>1.861615389296446</v>
       </c>
       <c r="H10">
-        <v>0.7570576225153047</v>
+        <v>1.594124715054505</v>
       </c>
       <c r="I10">
-        <v>1.075383480357885</v>
+        <v>1.813799467785088</v>
       </c>
       <c r="J10">
-        <v>0.06412678655716775</v>
+        <v>0.1804678218740854</v>
       </c>
       <c r="K10">
-        <v>4.686248506496042</v>
+        <v>2.279428344497489</v>
       </c>
       <c r="L10">
-        <v>0.06268478124489008</v>
+        <v>0.1785463734130488</v>
       </c>
       <c r="M10">
-        <v>0.9569647414840077</v>
+        <v>0.6387939745794142</v>
       </c>
       <c r="N10">
-        <v>0.8045795180733393</v>
+        <v>1.832495894331331</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1035928421804329</v>
+        <v>0.1311688117695695</v>
       </c>
       <c r="D11">
-        <v>0.0629031125106323</v>
+        <v>0.07976236228527966</v>
       </c>
       <c r="E11">
-        <v>0.05320717318330992</v>
+        <v>0.1167919784544349</v>
       </c>
       <c r="F11">
-        <v>1.55973647957903</v>
+        <v>2.539403072929545</v>
       </c>
       <c r="G11">
-        <v>1.279437665180978</v>
+        <v>1.863804090724784</v>
       </c>
       <c r="H11">
-        <v>0.7752157588747082</v>
+        <v>1.591108469865759</v>
       </c>
       <c r="I11">
-        <v>1.116089766105873</v>
+        <v>1.81459643590243</v>
       </c>
       <c r="J11">
-        <v>0.06422123883856656</v>
+        <v>0.1798764932557404</v>
       </c>
       <c r="K11">
-        <v>5.030393740840054</v>
+        <v>2.370856334994528</v>
       </c>
       <c r="L11">
-        <v>0.06291494039739476</v>
+        <v>0.1780964532944154</v>
       </c>
       <c r="M11">
-        <v>1.024380448100132</v>
+        <v>0.6556967564847511</v>
       </c>
       <c r="N11">
-        <v>0.7747079102775061</v>
+        <v>1.820015801395158</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1056699906084901</v>
+        <v>0.1316067500913647</v>
       </c>
       <c r="D12">
-        <v>0.06422191810117539</v>
+        <v>0.08008264655316566</v>
       </c>
       <c r="E12">
-        <v>0.05374089250275027</v>
+        <v>0.1168068904544999</v>
       </c>
       <c r="F12">
-        <v>1.581938836546584</v>
+        <v>2.540103526277179</v>
       </c>
       <c r="G12">
-        <v>1.299796318882329</v>
+        <v>1.864796210507393</v>
       </c>
       <c r="H12">
-        <v>0.7823952080229333</v>
+        <v>1.590074457689951</v>
       </c>
       <c r="I12">
-        <v>1.13195259849337</v>
+        <v>1.815038467188714</v>
       </c>
       <c r="J12">
-        <v>0.06427337841710212</v>
+        <v>0.1796609000103011</v>
       </c>
       <c r="K12">
-        <v>5.161376678755801</v>
+        <v>2.405569983361943</v>
       </c>
       <c r="L12">
-        <v>0.06301387188527485</v>
+        <v>0.1779329586916916</v>
       </c>
       <c r="M12">
-        <v>1.050057725020935</v>
+        <v>0.6621285807783863</v>
       </c>
       <c r="N12">
-        <v>0.7636492923458107</v>
+        <v>1.815387593976851</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1052219923534068</v>
+        <v>0.131512183180206</v>
       </c>
       <c r="D13">
-        <v>0.0639376298460661</v>
+        <v>0.08001356715456609</v>
       </c>
       <c r="E13">
-        <v>0.05362552293159872</v>
+        <v>0.1168034639921984</v>
       </c>
       <c r="F13">
-        <v>1.577129016639674</v>
+        <v>2.539944057088505</v>
       </c>
       <c r="G13">
-        <v>1.295384929039272</v>
+        <v>1.864575271236561</v>
       </c>
       <c r="H13">
-        <v>0.7808350761139593</v>
+        <v>1.590292339061563</v>
       </c>
       <c r="I13">
-        <v>1.12851564843632</v>
+        <v>1.81493702866544</v>
       </c>
       <c r="J13">
-        <v>0.06426140502757605</v>
+        <v>0.1797069616009459</v>
       </c>
       <c r="K13">
-        <v>5.133136144581158</v>
+        <v>2.39808971358832</v>
       </c>
       <c r="L13">
-        <v>0.06299203171395007</v>
+        <v>0.1779678644717038</v>
       </c>
       <c r="M13">
-        <v>1.044520750351879</v>
+        <v>0.6607419934724916</v>
       </c>
       <c r="N13">
-        <v>0.7660194799341369</v>
+        <v>1.816380014208214</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1037634408791632</v>
+        <v>0.1312047289250131</v>
       </c>
       <c r="D14">
-        <v>0.06301149531996231</v>
+        <v>0.07978866695233933</v>
       </c>
       <c r="E14">
-        <v>0.05325089267425653</v>
+        <v>0.1167931084091283</v>
       </c>
       <c r="F14">
-        <v>1.561550482289761</v>
+        <v>2.539456818210013</v>
       </c>
       <c r="G14">
-        <v>1.281100596088123</v>
+        <v>1.863882438163358</v>
       </c>
       <c r="H14">
-        <v>0.7758001873349656</v>
+        <v>1.591021232883861</v>
       </c>
       <c r="I14">
-        <v>1.117385587600637</v>
+        <v>1.814629990771508</v>
       </c>
       <c r="J14">
-        <v>0.06422519452285158</v>
+        <v>0.1798585893979165</v>
       </c>
       <c r="K14">
-        <v>5.041155952978102</v>
+        <v>2.373710414316861</v>
       </c>
       <c r="L14">
-        <v>0.06292284004703319</v>
+        <v>0.1780828647092854</v>
       </c>
       <c r="M14">
-        <v>1.026489846639087</v>
+        <v>0.6562252847727592</v>
       </c>
       <c r="N14">
-        <v>0.7737929572756173</v>
+        <v>1.819633077149682</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1028719067228678</v>
+        <v>0.1310171343290989</v>
       </c>
       <c r="D15">
-        <v>0.06244496062880245</v>
+        <v>0.07965120377048862</v>
       </c>
       <c r="E15">
-        <v>0.05302264999466466</v>
+        <v>0.1167873948852201</v>
       </c>
       <c r="F15">
-        <v>1.552089609122945</v>
+        <v>2.539183590741189</v>
       </c>
       <c r="G15">
-        <v>1.272428490258932</v>
+        <v>1.863479335304618</v>
       </c>
       <c r="H15">
-        <v>0.7727564495715455</v>
+        <v>1.591481789940531</v>
       </c>
       <c r="I15">
-        <v>1.11062771593015</v>
+        <v>1.81446018808272</v>
       </c>
       <c r="J15">
-        <v>0.06420517635319456</v>
+        <v>0.1799525502319668</v>
       </c>
       <c r="K15">
-        <v>4.984904575572159</v>
+        <v>2.358789312924785</v>
       </c>
       <c r="L15">
-        <v>0.06288200975090419</v>
+        <v>0.1781542011471622</v>
       </c>
       <c r="M15">
-        <v>1.015465303413123</v>
+        <v>0.6534627127237087</v>
       </c>
       <c r="N15">
-        <v>0.7785878178360406</v>
+        <v>1.821638400470007</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09779051479112866</v>
+        <v>0.1299533271274527</v>
       </c>
       <c r="D16">
-        <v>0.05920937337208443</v>
+        <v>0.07886799887837981</v>
       </c>
       <c r="E16">
-        <v>0.05173304659113498</v>
+        <v>0.1167643168885402</v>
       </c>
       <c r="F16">
-        <v>1.499078999936145</v>
+        <v>2.538004281474358</v>
       </c>
       <c r="G16">
-        <v>1.223877210519646</v>
+        <v>1.86149518625399</v>
       </c>
       <c r="H16">
-        <v>0.7559120012321614</v>
+        <v>1.594336969318846</v>
       </c>
       <c r="I16">
-        <v>1.072783715744762</v>
+        <v>1.813767000972419</v>
       </c>
       <c r="J16">
-        <v>0.06412285136809004</v>
+        <v>0.1805076329816941</v>
       </c>
       <c r="K16">
-        <v>4.663845364999361</v>
+        <v>2.273466234587318</v>
       </c>
       <c r="L16">
-        <v>0.06267135477164487</v>
+        <v>0.1785767405847878</v>
       </c>
       <c r="M16">
-        <v>0.9525786885062288</v>
+        <v>0.6376937070415707</v>
       </c>
       <c r="N16">
-        <v>0.8065663594568164</v>
+        <v>1.833325172963605</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09469680050469265</v>
+        <v>0.129310764479186</v>
       </c>
       <c r="D17">
-        <v>0.05723373773808049</v>
+        <v>0.078391606567358</v>
       </c>
       <c r="E17">
-        <v>0.05095779975031611</v>
+        <v>0.1167587981483642</v>
       </c>
       <c r="F17">
-        <v>1.467590192773017</v>
+        <v>2.537625524655894</v>
       </c>
       <c r="G17">
-        <v>1.195069884650266</v>
+        <v>1.860568479547041</v>
       </c>
       <c r="H17">
-        <v>0.746091692583164</v>
+        <v>1.596281164942823</v>
       </c>
       <c r="I17">
-        <v>1.050322527076595</v>
+        <v>1.813591392118724</v>
       </c>
       <c r="J17">
-        <v>0.06410046717122242</v>
+        <v>0.1808630093395287</v>
       </c>
       <c r="K17">
-        <v>4.467965825195961</v>
+        <v>2.221288283684146</v>
       </c>
       <c r="L17">
-        <v>0.06256246018187284</v>
+        <v>0.1788482298166869</v>
       </c>
       <c r="M17">
-        <v>0.914243803758076</v>
+        <v>0.6280756530341733</v>
       </c>
       <c r="N17">
-        <v>0.8241663825430265</v>
+        <v>1.840668683440107</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09292561222798668</v>
+        <v>0.1289448863314249</v>
       </c>
       <c r="D18">
-        <v>0.05610062121672854</v>
+        <v>0.0781191076804717</v>
       </c>
       <c r="E18">
-        <v>0.05051754217346982</v>
+        <v>0.1167588048639594</v>
       </c>
       <c r="F18">
-        <v>1.449840658226464</v>
+        <v>2.537534305751223</v>
       </c>
       <c r="G18">
-        <v>1.178842785762043</v>
+        <v>1.860142112720354</v>
       </c>
       <c r="H18">
-        <v>0.7406241010108232</v>
+        <v>1.597470197017657</v>
       </c>
       <c r="I18">
-        <v>1.037668313560246</v>
+        <v>1.813582086192923</v>
       </c>
       <c r="J18">
-        <v>0.06409762537403552</v>
+        <v>0.1810728744210515</v>
       </c>
       <c r="K18">
-        <v>4.355669064053018</v>
+        <v>2.191337960820761</v>
       </c>
       <c r="L18">
-        <v>0.06250711583107815</v>
+        <v>0.1790089003283768</v>
       </c>
       <c r="M18">
-        <v>0.8922784111680215</v>
+        <v>0.6225641742350092</v>
       </c>
       <c r="N18">
-        <v>0.8344454599404045</v>
+        <v>1.844956435438753</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09232729377872317</v>
+        <v>0.1288216442755612</v>
       </c>
       <c r="D19">
-        <v>0.05571750178821588</v>
+        <v>0.07802710447565886</v>
       </c>
       <c r="E19">
-        <v>0.05036943010995643</v>
+        <v>0.1167593540578231</v>
       </c>
       <c r="F19">
-        <v>1.44389157514793</v>
+        <v>2.537525165241306</v>
       </c>
       <c r="G19">
-        <v>1.173405761395287</v>
+        <v>1.860016059236074</v>
       </c>
       <c r="H19">
-        <v>0.7388032016339423</v>
+        <v>1.597884938769838</v>
       </c>
       <c r="I19">
-        <v>1.033428152900804</v>
+        <v>1.813594680934976</v>
       </c>
       <c r="J19">
-        <v>0.06409835871228609</v>
+        <v>0.1811448696437381</v>
       </c>
       <c r="K19">
-        <v>4.31770785916018</v>
+        <v>2.181207822187332</v>
       </c>
       <c r="L19">
-        <v>0.06248961211595727</v>
+        <v>0.1790640769946847</v>
       </c>
       <c r="M19">
-        <v>0.8848551651803831</v>
+        <v>0.6207016243698504</v>
       </c>
       <c r="N19">
-        <v>0.8379521826530727</v>
+        <v>1.846419179190221</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09502527014977602</v>
+        <v>0.1293787830379927</v>
       </c>
       <c r="D20">
-        <v>0.05744371024128725</v>
+        <v>0.07844216336653176</v>
       </c>
       <c r="E20">
-        <v>0.05103973772218673</v>
+        <v>0.1167590565514161</v>
       </c>
       <c r="F20">
-        <v>1.470904389015772</v>
+        <v>2.537652736940942</v>
       </c>
       <c r="G20">
-        <v>1.198100690941018</v>
+        <v>1.860656088686241</v>
       </c>
       <c r="H20">
-        <v>0.7471181980524904</v>
+        <v>1.596066876066729</v>
       </c>
       <c r="I20">
-        <v>1.052685869793223</v>
+        <v>1.813600594467928</v>
       </c>
       <c r="J20">
-        <v>0.06410180500184381</v>
+        <v>0.1808246137197678</v>
       </c>
       <c r="K20">
-        <v>4.488778817681577</v>
+        <v>2.226836406206644</v>
       </c>
       <c r="L20">
-        <v>0.06257329375797127</v>
+        <v>0.1788188619601492</v>
       </c>
       <c r="M20">
-        <v>0.9183158138391718</v>
+        <v>0.6290973843657213</v>
       </c>
       <c r="N20">
-        <v>0.8222765899142246</v>
+        <v>1.83988033458423</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1041914603965779</v>
+        <v>0.1312948836358885</v>
       </c>
       <c r="D21">
-        <v>0.06328336609041685</v>
+        <v>0.07985466423925658</v>
       </c>
       <c r="E21">
-        <v>0.05336067334119754</v>
+        <v>0.1167960189273209</v>
       </c>
       <c r="F21">
-        <v>1.566109202606071</v>
+        <v>2.539594675894051</v>
       </c>
       <c r="G21">
-        <v>1.285280005189861</v>
+        <v>1.864081505228739</v>
       </c>
       <c r="H21">
-        <v>0.7772706152801447</v>
+        <v>1.590804202995599</v>
       </c>
       <c r="I21">
-        <v>1.120642257373618</v>
+        <v>1.814716368203946</v>
       </c>
       <c r="J21">
-        <v>0.06423537809232371</v>
+        <v>0.1798138266679565</v>
       </c>
       <c r="K21">
-        <v>5.068154011898798</v>
+        <v>2.380868722976459</v>
       </c>
       <c r="L21">
-        <v>0.06294283885601359</v>
+        <v>0.1780488997698342</v>
       </c>
       <c r="M21">
-        <v>1.031781776300676</v>
+        <v>0.6575511096836379</v>
       </c>
       <c r="N21">
-        <v>0.7715027163000272</v>
+        <v>1.818674921093759</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1102646698683571</v>
+        <v>0.1325798775447993</v>
       </c>
       <c r="D22">
-        <v>0.06713291902419627</v>
+        <v>0.08079103293007961</v>
       </c>
       <c r="E22">
-        <v>0.05493202529227226</v>
+        <v>0.1168483706684746</v>
       </c>
       <c r="F22">
-        <v>1.631928872250413</v>
+        <v>2.54199252095664</v>
       </c>
       <c r="G22">
-        <v>1.345677000437121</v>
+        <v>1.867272245344736</v>
       </c>
       <c r="H22">
-        <v>0.7987582648711395</v>
+        <v>1.587995282545421</v>
       </c>
       <c r="I22">
-        <v>1.167689417953582</v>
+        <v>1.816263060454105</v>
       </c>
       <c r="J22">
-        <v>0.06441860985740888</v>
+        <v>0.1792017668902623</v>
       </c>
       <c r="K22">
-        <v>5.45072000018456</v>
+        <v>2.482072534531142</v>
       </c>
       <c r="L22">
-        <v>0.06325329954977477</v>
+        <v>0.1775857804605074</v>
       </c>
       <c r="M22">
-        <v>1.106813241096575</v>
+        <v>0.6763284481839094</v>
       </c>
       <c r="N22">
-        <v>0.7398014751402684</v>
+        <v>1.805385632412559</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1070152565212794</v>
+        <v>0.1318910733901504</v>
       </c>
       <c r="D23">
-        <v>0.06507509738572281</v>
+        <v>0.08029007666458199</v>
       </c>
       <c r="E23">
-        <v>0.05408816428862551</v>
+        <v>0.1168178560703659</v>
       </c>
       <c r="F23">
-        <v>1.59645136881943</v>
+        <v>2.540609421334295</v>
       </c>
       <c r="G23">
-        <v>1.313109944419921</v>
+        <v>1.8654820632363</v>
       </c>
       <c r="H23">
-        <v>0.7871181591665675</v>
+        <v>1.58943674997866</v>
       </c>
       <c r="I23">
-        <v>1.1423244315273</v>
+        <v>1.815362719330167</v>
       </c>
       <c r="J23">
-        <v>0.06431170153483734</v>
+        <v>0.1795239969076086</v>
       </c>
       <c r="K23">
-        <v>5.246147062578473</v>
+        <v>2.428009651270713</v>
       </c>
       <c r="L23">
-        <v>0.06308108718463856</v>
+        <v>0.1778292934036152</v>
       </c>
       <c r="M23">
-        <v>1.066680915063493</v>
+        <v>0.6662901474127452</v>
       </c>
       <c r="N23">
-        <v>0.7565806338374017</v>
+        <v>1.812426243181925</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0948767459821056</v>
+        <v>0.1293480208196058</v>
       </c>
       <c r="D24">
-        <v>0.05734877330073829</v>
+        <v>0.07841930232053329</v>
       </c>
       <c r="E24">
-        <v>0.05100267665947378</v>
+        <v>0.1167589298222893</v>
       </c>
       <c r="F24">
-        <v>1.46940494290817</v>
+        <v>2.537640040123108</v>
       </c>
       <c r="G24">
-        <v>1.196729425177082</v>
+        <v>1.860616149153515</v>
       </c>
       <c r="H24">
-        <v>0.746653561609719</v>
+        <v>1.596163534001306</v>
       </c>
       <c r="I24">
-        <v>1.051616598708208</v>
+        <v>1.813596148591124</v>
       </c>
       <c r="J24">
-        <v>0.06410116900709895</v>
+        <v>0.1808419550765912</v>
       </c>
       <c r="K24">
-        <v>4.479368283211784</v>
+        <v>2.224327952029682</v>
       </c>
       <c r="L24">
-        <v>0.0625683733265987</v>
+        <v>0.1788321248760418</v>
       </c>
       <c r="M24">
-        <v>0.916474629455422</v>
+        <v>0.6286354033260508</v>
       </c>
       <c r="N24">
-        <v>0.8231304659632386</v>
+        <v>1.84023654191175</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08209371370679719</v>
+        <v>0.1267468152919236</v>
       </c>
       <c r="D25">
-        <v>0.0491355941048397</v>
+        <v>0.07645920157386854</v>
       </c>
       <c r="E25">
-        <v>0.04788819734725358</v>
+        <v>0.1168170590640063</v>
       </c>
       <c r="F25">
-        <v>1.346024305887198</v>
+        <v>2.53927779342699</v>
       </c>
       <c r="G25">
-        <v>1.08409416387461</v>
+        <v>1.859443479737479</v>
       </c>
       <c r="H25">
-        <v>0.7098356339322294</v>
+        <v>1.606125463860664</v>
       </c>
       <c r="I25">
-        <v>0.9637675253238882</v>
+        <v>1.815195896490032</v>
       </c>
       <c r="J25">
-        <v>0.06425447505454329</v>
+        <v>0.182472466538588</v>
       </c>
       <c r="K25">
-        <v>3.666037037787703</v>
+        <v>2.00696299749734</v>
       </c>
       <c r="L25">
-        <v>0.06229203995651744</v>
+        <v>0.1800866170159345</v>
       </c>
       <c r="M25">
-        <v>0.7575955600879354</v>
+        <v>0.5888061954995294</v>
       </c>
       <c r="N25">
-        <v>0.9008350529968752</v>
+        <v>1.872679785247346</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_106/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1249546554732959</v>
+        <v>0.07290224485424091</v>
       </c>
       <c r="D2">
-        <v>0.07506655530873729</v>
+        <v>0.04317040118613136</v>
       </c>
       <c r="E2">
-        <v>0.1169651680031922</v>
+        <v>0.04575805577509051</v>
       </c>
       <c r="F2">
-        <v>2.544638687492935</v>
+        <v>1.265126411576063</v>
       </c>
       <c r="G2">
-        <v>1.862070362332105</v>
+        <v>1.010461173148613</v>
       </c>
       <c r="H2">
-        <v>1.615786594251816</v>
+        <v>0.6877802499637369</v>
       </c>
       <c r="I2">
-        <v>1.81938182001209</v>
+        <v>0.9063570296756751</v>
       </c>
       <c r="J2">
-        <v>0.1838533104454285</v>
+        <v>0.06466305210609846</v>
       </c>
       <c r="K2">
-        <v>1.848937505168578</v>
+        <v>3.075887087084539</v>
       </c>
       <c r="L2">
-        <v>0.1811597084840884</v>
+        <v>0.06230715963426903</v>
       </c>
       <c r="M2">
-        <v>0.5601606953080207</v>
+        <v>0.6426809590492368</v>
       </c>
       <c r="N2">
-        <v>1.898674655541754</v>
+        <v>0.9627084333932316</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1238174759113591</v>
+        <v>0.06679010956626996</v>
       </c>
       <c r="D3">
-        <v>0.07415474852088977</v>
+        <v>0.03916938500307054</v>
       </c>
       <c r="E3">
-        <v>0.1171315795202101</v>
+        <v>0.04440684750386659</v>
       </c>
       <c r="F3">
-        <v>2.550860119042454</v>
+        <v>1.215701559963904</v>
       </c>
       <c r="G3">
-        <v>1.866020650484188</v>
+        <v>0.965559685184644</v>
       </c>
       <c r="H3">
-        <v>1.623784785589635</v>
+        <v>0.6756196053443375</v>
       </c>
       <c r="I3">
-        <v>1.824092095109528</v>
+        <v>0.8713952338995199</v>
       </c>
       <c r="J3">
-        <v>0.1849019369038238</v>
+        <v>0.06511032891685176</v>
       </c>
       <c r="K3">
-        <v>1.743109116010999</v>
+        <v>2.679975852628672</v>
       </c>
       <c r="L3">
-        <v>0.1819805800203511</v>
+        <v>0.06244506367118063</v>
       </c>
       <c r="M3">
-        <v>0.5411742080338655</v>
+        <v>0.5658097736655847</v>
       </c>
       <c r="N3">
-        <v>1.917608046639511</v>
+        <v>1.007354635778306</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1231576442727516</v>
+        <v>0.06308881016637713</v>
       </c>
       <c r="D4">
-        <v>0.07361085567465864</v>
+        <v>0.03673048848170168</v>
       </c>
       <c r="E4">
-        <v>0.1172664538558728</v>
+        <v>0.04361999195609911</v>
       </c>
       <c r="F4">
-        <v>2.555955896324335</v>
+        <v>1.187776050484715</v>
       </c>
       <c r="G4">
-        <v>1.869514367337644</v>
+        <v>0.9402152359595419</v>
       </c>
       <c r="H4">
-        <v>1.629411293329952</v>
+        <v>0.6694172453223928</v>
       </c>
       <c r="I4">
-        <v>1.827907525011085</v>
+        <v>0.8516969870713851</v>
       </c>
       <c r="J4">
-        <v>0.1856015611118771</v>
+        <v>0.06546474951277581</v>
       </c>
       <c r="K4">
-        <v>1.678759324706846</v>
+        <v>2.438464219270799</v>
       </c>
       <c r="L4">
-        <v>0.1825309249918128</v>
+        <v>0.06259008063443261</v>
       </c>
       <c r="M4">
-        <v>0.5297281085374266</v>
+        <v>0.5190235973702642</v>
       </c>
       <c r="N4">
-        <v>1.929883204265575</v>
+        <v>1.036047959936219</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1228984578522727</v>
+        <v>0.06159264571300582</v>
       </c>
       <c r="D5">
-        <v>0.07339326069487129</v>
+        <v>0.03574071380403154</v>
       </c>
       <c r="E5">
-        <v>0.1173296589518227</v>
+        <v>0.04330972142115286</v>
       </c>
       <c r="F5">
-        <v>2.558353223306426</v>
+        <v>1.176971588232234</v>
       </c>
       <c r="G5">
-        <v>1.871206451284905</v>
+        <v>0.9304133366884741</v>
       </c>
       <c r="H5">
-        <v>1.6318841044626</v>
+        <v>0.6671924005401877</v>
       </c>
       <c r="I5">
-        <v>1.829694457451097</v>
+        <v>0.8440898703611026</v>
       </c>
       <c r="J5">
-        <v>0.1859007030925586</v>
+        <v>0.06562865136667995</v>
       </c>
       <c r="K5">
-        <v>1.652695740308644</v>
+        <v>2.340387926988711</v>
       </c>
       <c r="L5">
-        <v>0.1827668659967419</v>
+        <v>0.06266398621490055</v>
       </c>
       <c r="M5">
-        <v>0.5251172456733784</v>
+        <v>0.5000504073256877</v>
       </c>
       <c r="N5">
-        <v>1.935048938618984</v>
+        <v>1.048054434678086</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1228560073209692</v>
+        <v>0.06134491916835572</v>
       </c>
       <c r="D6">
-        <v>0.07335737452680036</v>
+        <v>0.03557659964061344</v>
       </c>
       <c r="E6">
-        <v>0.1173406525620937</v>
+        <v>0.04325881742428095</v>
       </c>
       <c r="F6">
-        <v>2.558770669087096</v>
+        <v>1.175211326113015</v>
       </c>
       <c r="G6">
-        <v>1.871503621999679</v>
+        <v>0.9288165789748177</v>
       </c>
       <c r="H6">
-        <v>1.632305582967021</v>
+        <v>0.6668408180502041</v>
       </c>
       <c r="I6">
-        <v>1.830005193691697</v>
+        <v>0.8428513938528326</v>
       </c>
       <c r="J6">
-        <v>0.1859512238489618</v>
+        <v>0.06565702659362493</v>
       </c>
       <c r="K6">
-        <v>1.648377570894695</v>
+        <v>2.324121513810923</v>
       </c>
       <c r="L6">
-        <v>0.1828067493607222</v>
+        <v>0.06267714242645184</v>
       </c>
       <c r="M6">
-        <v>0.5243548561074647</v>
+        <v>0.4969051968832048</v>
       </c>
       <c r="N6">
-        <v>1.935916582376741</v>
+        <v>1.050066816597781</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1231541094585751</v>
+        <v>0.06306858424591866</v>
       </c>
       <c r="D7">
-        <v>0.07360790468835177</v>
+        <v>0.0367171239162758</v>
       </c>
       <c r="E7">
-        <v>0.1172672728596158</v>
+        <v>0.04361576599974981</v>
       </c>
       <c r="F7">
-        <v>2.555986928858601</v>
+        <v>1.187628050776013</v>
       </c>
       <c r="G7">
-        <v>1.869536101102369</v>
+        <v>0.9400809563767325</v>
       </c>
       <c r="H7">
-        <v>1.62944391383374</v>
+        <v>0.6693860343055746</v>
       </c>
       <c r="I7">
-        <v>1.827930684467802</v>
+        <v>0.8515927254266913</v>
       </c>
       <c r="J7">
-        <v>0.1856055385772066</v>
+        <v>0.0654668818630828</v>
       </c>
       <c r="K7">
-        <v>1.678407174720689</v>
+        <v>2.43714021551213</v>
       </c>
       <c r="L7">
-        <v>0.1825340596901146</v>
+        <v>0.06259101785106402</v>
       </c>
       <c r="M7">
-        <v>0.5296657077646429</v>
+        <v>0.5187673579585166</v>
       </c>
       <c r="N7">
-        <v>1.929952209043048</v>
+        <v>1.036208623765503</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1245546115778922</v>
+        <v>0.07078356173906997</v>
       </c>
       <c r="D8">
-        <v>0.07474887081955472</v>
+        <v>0.0417869378471778</v>
       </c>
       <c r="E8">
-        <v>0.1170157727416861</v>
+        <v>0.04528304088390911</v>
       </c>
       <c r="F8">
-        <v>2.546519009115613</v>
+        <v>1.247561326957452</v>
       </c>
       <c r="G8">
-        <v>1.863210558068673</v>
+        <v>0.9944965623929107</v>
       </c>
       <c r="H8">
-        <v>1.618395862972775</v>
+        <v>0.6833153756337822</v>
       </c>
       <c r="I8">
-        <v>1.820814252615399</v>
+        <v>0.8939198849301278</v>
       </c>
       <c r="J8">
-        <v>0.1842033135150487</v>
+        <v>0.0648003456827162</v>
       </c>
       <c r="K8">
-        <v>1.812317979938598</v>
+        <v>2.939014425607809</v>
       </c>
       <c r="L8">
-        <v>0.1814331429406124</v>
+        <v>0.06234195894292682</v>
       </c>
       <c r="M8">
-        <v>0.5535703848065339</v>
+        <v>0.6160829937337056</v>
       </c>
       <c r="N8">
-        <v>1.90506802535916</v>
+        <v>0.9778315851648003</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1276039899410364</v>
+        <v>0.08636251076968904</v>
       </c>
       <c r="D9">
-        <v>0.07711166833826155</v>
+        <v>0.05188809077257872</v>
       </c>
       <c r="E9">
-        <v>0.1167811643025569</v>
+        <v>0.04891067635709234</v>
       </c>
       <c r="F9">
-        <v>2.53808016458332</v>
+        <v>1.385926446732171</v>
       </c>
       <c r="G9">
-        <v>1.859295325353727</v>
+        <v>1.120477630866489</v>
       </c>
       <c r="H9">
-        <v>1.602408361724443</v>
+        <v>0.7214010446017483</v>
       </c>
       <c r="I9">
-        <v>1.814189334050113</v>
+        <v>0.9921464275361416</v>
       </c>
       <c r="J9">
-        <v>0.1818952620481866</v>
+        <v>0.06415491139783214</v>
       </c>
       <c r="K9">
-        <v>2.079869853577634</v>
+        <v>3.938460049189075</v>
       </c>
       <c r="L9">
-        <v>0.1796408846926347</v>
+        <v>0.06234994146389639</v>
       </c>
       <c r="M9">
-        <v>0.6021172815760991</v>
+        <v>0.8107530989169689</v>
       </c>
       <c r="N9">
-        <v>1.86142417901382</v>
+        <v>0.8739089957393631</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1300271492730758</v>
+        <v>0.09814467505198365</v>
       </c>
       <c r="D10">
-        <v>0.07892256231782113</v>
+        <v>0.05943525716598685</v>
       </c>
       <c r="E10">
-        <v>0.1167653771946942</v>
+        <v>0.05182228621442775</v>
       </c>
       <c r="F10">
-        <v>2.538064662788756</v>
+        <v>1.502722362803183</v>
       </c>
       <c r="G10">
-        <v>1.861615389296446</v>
+        <v>1.227211901669364</v>
       </c>
       <c r="H10">
-        <v>1.594124715054505</v>
+        <v>0.7570576225153047</v>
       </c>
       <c r="I10">
-        <v>1.813799467785088</v>
+        <v>1.0753834803579</v>
       </c>
       <c r="J10">
-        <v>0.1804678218740854</v>
+        <v>0.06412678655727433</v>
       </c>
       <c r="K10">
-        <v>2.279428344497489</v>
+        <v>4.686248506496213</v>
       </c>
       <c r="L10">
-        <v>0.1785463734130488</v>
+        <v>0.06268478124484389</v>
       </c>
       <c r="M10">
-        <v>0.6387939745794142</v>
+        <v>0.9569647414840148</v>
       </c>
       <c r="N10">
-        <v>1.832495894331331</v>
+        <v>0.8045795180733464</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1311688117695695</v>
+        <v>0.1035928421804044</v>
       </c>
       <c r="D11">
-        <v>0.07976236228527966</v>
+        <v>0.0629031125106394</v>
       </c>
       <c r="E11">
-        <v>0.1167919784544349</v>
+        <v>0.053207173183349</v>
       </c>
       <c r="F11">
-        <v>2.539403072929545</v>
+        <v>1.559736479579044</v>
       </c>
       <c r="G11">
-        <v>1.863804090724784</v>
+        <v>1.279437665180978</v>
       </c>
       <c r="H11">
-        <v>1.591108469865759</v>
+        <v>0.7752157588747082</v>
       </c>
       <c r="I11">
-        <v>1.81459643590243</v>
+        <v>1.116089766105858</v>
       </c>
       <c r="J11">
-        <v>0.1798764932557404</v>
+        <v>0.06422123883856656</v>
       </c>
       <c r="K11">
-        <v>2.370856334994528</v>
+        <v>5.030393740839997</v>
       </c>
       <c r="L11">
-        <v>0.1780964532944154</v>
+        <v>0.06291494039729528</v>
       </c>
       <c r="M11">
-        <v>0.6556967564847511</v>
+        <v>1.024380448100139</v>
       </c>
       <c r="N11">
-        <v>1.820015801395158</v>
+        <v>0.7747079102775061</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1316067500913647</v>
+        <v>0.1056699906086038</v>
       </c>
       <c r="D12">
-        <v>0.08008264655316566</v>
+        <v>0.06422191810106881</v>
       </c>
       <c r="E12">
-        <v>0.1168068904544999</v>
+        <v>0.0537408925027556</v>
       </c>
       <c r="F12">
-        <v>2.540103526277179</v>
+        <v>1.58193883654657</v>
       </c>
       <c r="G12">
-        <v>1.864796210507393</v>
+        <v>1.299796318882329</v>
       </c>
       <c r="H12">
-        <v>1.590074457689951</v>
+        <v>0.7823952080229333</v>
       </c>
       <c r="I12">
-        <v>1.815038467188714</v>
+        <v>1.13195259849337</v>
       </c>
       <c r="J12">
-        <v>0.1796609000103011</v>
+        <v>0.06427337841712699</v>
       </c>
       <c r="K12">
-        <v>2.405569983361943</v>
+        <v>5.161376678755744</v>
       </c>
       <c r="L12">
-        <v>0.1779329586916916</v>
+        <v>0.06301387188534591</v>
       </c>
       <c r="M12">
-        <v>0.6621285807783863</v>
+        <v>1.05005772502092</v>
       </c>
       <c r="N12">
-        <v>1.815387593976851</v>
+        <v>0.7636492923457681</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.131512183180206</v>
+        <v>0.1052219923533926</v>
       </c>
       <c r="D13">
-        <v>0.08001356715456609</v>
+        <v>0.06393762984599505</v>
       </c>
       <c r="E13">
-        <v>0.1168034639921984</v>
+        <v>0.05362552293163425</v>
       </c>
       <c r="F13">
-        <v>2.539944057088505</v>
+        <v>1.577129016639688</v>
       </c>
       <c r="G13">
-        <v>1.864575271236561</v>
+        <v>1.295384929039358</v>
       </c>
       <c r="H13">
-        <v>1.590292339061563</v>
+        <v>0.7808350761138456</v>
       </c>
       <c r="I13">
-        <v>1.81493702866544</v>
+        <v>1.12851564843632</v>
       </c>
       <c r="J13">
-        <v>0.1797069616009459</v>
+        <v>0.06426140502762934</v>
       </c>
       <c r="K13">
-        <v>2.39808971358832</v>
+        <v>5.133136144581158</v>
       </c>
       <c r="L13">
-        <v>0.1779678644717038</v>
+        <v>0.06299203171398204</v>
       </c>
       <c r="M13">
-        <v>0.6607419934724916</v>
+        <v>1.044520750351865</v>
       </c>
       <c r="N13">
-        <v>1.816380014208214</v>
+        <v>0.766019479934144</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1312047289250131</v>
+        <v>0.103763440879149</v>
       </c>
       <c r="D14">
-        <v>0.07978866695233933</v>
+        <v>0.0630114953200831</v>
       </c>
       <c r="E14">
-        <v>0.1167931084091283</v>
+        <v>0.05325089267424055</v>
       </c>
       <c r="F14">
-        <v>2.539456818210013</v>
+        <v>1.561550482289732</v>
       </c>
       <c r="G14">
-        <v>1.863882438163358</v>
+        <v>1.281100596088123</v>
       </c>
       <c r="H14">
-        <v>1.591021232883861</v>
+        <v>0.7758001873348519</v>
       </c>
       <c r="I14">
-        <v>1.814629990771508</v>
+        <v>1.117385587600623</v>
       </c>
       <c r="J14">
-        <v>0.1798585893979165</v>
+        <v>0.06422519452280895</v>
       </c>
       <c r="K14">
-        <v>2.373710414316861</v>
+        <v>5.041155952977988</v>
       </c>
       <c r="L14">
-        <v>0.1780828647092854</v>
+        <v>0.0629228400470403</v>
       </c>
       <c r="M14">
-        <v>0.6562252847727592</v>
+        <v>1.026489846639087</v>
       </c>
       <c r="N14">
-        <v>1.819633077149682</v>
+        <v>0.7737929572755675</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1310171343290989</v>
+        <v>0.1028719067230384</v>
       </c>
       <c r="D15">
-        <v>0.07965120377048862</v>
+        <v>0.06244496062892324</v>
       </c>
       <c r="E15">
-        <v>0.1167873948852201</v>
+        <v>0.05302264999466644</v>
       </c>
       <c r="F15">
-        <v>2.539183590741189</v>
+        <v>1.55208960912293</v>
       </c>
       <c r="G15">
-        <v>1.863479335304618</v>
+        <v>1.272428490258818</v>
       </c>
       <c r="H15">
-        <v>1.591481789940531</v>
+        <v>0.7727564495715455</v>
       </c>
       <c r="I15">
-        <v>1.81446018808272</v>
+        <v>1.110627715930164</v>
       </c>
       <c r="J15">
-        <v>0.1799525502319668</v>
+        <v>0.06420517635320522</v>
       </c>
       <c r="K15">
-        <v>2.358789312924785</v>
+        <v>4.984904575572159</v>
       </c>
       <c r="L15">
-        <v>0.1781542011471622</v>
+        <v>0.06288200975101432</v>
       </c>
       <c r="M15">
-        <v>0.6534627127237087</v>
+        <v>1.015465303413151</v>
       </c>
       <c r="N15">
-        <v>1.821638400470007</v>
+        <v>0.7785878178360548</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1299533271274527</v>
+        <v>0.09779051479141287</v>
       </c>
       <c r="D16">
-        <v>0.07886799887837981</v>
+        <v>0.05920937337228338</v>
       </c>
       <c r="E16">
-        <v>0.1167643168885402</v>
+        <v>0.0517330465911332</v>
       </c>
       <c r="F16">
-        <v>2.538004281474358</v>
+        <v>1.499078999936131</v>
       </c>
       <c r="G16">
-        <v>1.86149518625399</v>
+        <v>1.223877210519589</v>
       </c>
       <c r="H16">
-        <v>1.594336969318846</v>
+        <v>0.7559120012321614</v>
       </c>
       <c r="I16">
-        <v>1.813767000972419</v>
+        <v>1.072783715744748</v>
       </c>
       <c r="J16">
-        <v>0.1805076329816941</v>
+        <v>0.06412285136801898</v>
       </c>
       <c r="K16">
-        <v>2.273466234587318</v>
+        <v>4.663845364999588</v>
       </c>
       <c r="L16">
-        <v>0.1785767405847878</v>
+        <v>0.06267135477157737</v>
       </c>
       <c r="M16">
-        <v>0.6376937070415707</v>
+        <v>0.9525786885062359</v>
       </c>
       <c r="N16">
-        <v>1.833325172963605</v>
+        <v>0.8065663594568591</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.129310764479186</v>
+        <v>0.09469680050453633</v>
       </c>
       <c r="D17">
-        <v>0.078391606567358</v>
+        <v>0.05723373773793128</v>
       </c>
       <c r="E17">
-        <v>0.1167587981483642</v>
+        <v>0.05095779975033921</v>
       </c>
       <c r="F17">
-        <v>2.537625524655894</v>
+        <v>1.467590192773002</v>
       </c>
       <c r="G17">
-        <v>1.860568479547041</v>
+        <v>1.195069884650238</v>
       </c>
       <c r="H17">
-        <v>1.596281164942823</v>
+        <v>0.7460916925832777</v>
       </c>
       <c r="I17">
-        <v>1.813591392118724</v>
+        <v>1.050322527076588</v>
       </c>
       <c r="J17">
-        <v>0.1808630093395287</v>
+        <v>0.06410046717123308</v>
       </c>
       <c r="K17">
-        <v>2.221288283684146</v>
+        <v>4.467965825195847</v>
       </c>
       <c r="L17">
-        <v>0.1788482298166869</v>
+        <v>0.06256246018197942</v>
       </c>
       <c r="M17">
-        <v>0.6280756530341733</v>
+        <v>0.914243803758076</v>
       </c>
       <c r="N17">
-        <v>1.840668683440107</v>
+        <v>0.8241663825430265</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1289448863314249</v>
+        <v>0.09292561222802931</v>
       </c>
       <c r="D18">
-        <v>0.0781191076804717</v>
+        <v>0.05610062121684223</v>
       </c>
       <c r="E18">
-        <v>0.1167588048639594</v>
+        <v>0.05051754217346982</v>
       </c>
       <c r="F18">
-        <v>2.537534305751223</v>
+        <v>1.449840658226478</v>
       </c>
       <c r="G18">
-        <v>1.860142112720354</v>
+        <v>1.178842785762043</v>
       </c>
       <c r="H18">
-        <v>1.597470197017657</v>
+        <v>0.7406241010108232</v>
       </c>
       <c r="I18">
-        <v>1.813582086192923</v>
+        <v>1.037668313560239</v>
       </c>
       <c r="J18">
-        <v>0.1810728744210515</v>
+        <v>0.06409762537397157</v>
       </c>
       <c r="K18">
-        <v>2.191337960820761</v>
+        <v>4.355669064053131</v>
       </c>
       <c r="L18">
-        <v>0.1790089003283768</v>
+        <v>0.06250711583097157</v>
       </c>
       <c r="M18">
-        <v>0.6225641742350092</v>
+        <v>0.8922784111680429</v>
       </c>
       <c r="N18">
-        <v>1.844956435438753</v>
+        <v>0.8344454599404649</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1288216442755612</v>
+        <v>0.09232729377869475</v>
       </c>
       <c r="D19">
-        <v>0.07802710447565886</v>
+        <v>0.05571750178801693</v>
       </c>
       <c r="E19">
-        <v>0.1167593540578231</v>
+        <v>0.0503694301099511</v>
       </c>
       <c r="F19">
-        <v>2.537525165241306</v>
+        <v>1.443891575147944</v>
       </c>
       <c r="G19">
-        <v>1.860016059236074</v>
+        <v>1.173405761395244</v>
       </c>
       <c r="H19">
-        <v>1.597884938769838</v>
+        <v>0.7388032016339423</v>
       </c>
       <c r="I19">
-        <v>1.813594680934976</v>
+        <v>1.033428152900811</v>
       </c>
       <c r="J19">
-        <v>0.1811448696437381</v>
+        <v>0.06409835871235003</v>
       </c>
       <c r="K19">
-        <v>2.181207822187332</v>
+        <v>4.31770785916035</v>
       </c>
       <c r="L19">
-        <v>0.1790640769946847</v>
+        <v>0.06248961211606385</v>
       </c>
       <c r="M19">
-        <v>0.6207016243698504</v>
+        <v>0.884855165180376</v>
       </c>
       <c r="N19">
-        <v>1.846419179190221</v>
+        <v>0.8379521826530905</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1293787830379927</v>
+        <v>0.09502527014990392</v>
       </c>
       <c r="D20">
-        <v>0.07844216336653176</v>
+        <v>0.05744371024117356</v>
       </c>
       <c r="E20">
-        <v>0.1167590565514161</v>
+        <v>0.05103973772218851</v>
       </c>
       <c r="F20">
-        <v>2.537652736940942</v>
+        <v>1.4709043890158</v>
       </c>
       <c r="G20">
-        <v>1.860656088686241</v>
+        <v>1.198100690941018</v>
       </c>
       <c r="H20">
-        <v>1.596066876066729</v>
+        <v>0.7471181980524904</v>
       </c>
       <c r="I20">
-        <v>1.813600594467928</v>
+        <v>1.052685869793223</v>
       </c>
       <c r="J20">
-        <v>0.1808246137197678</v>
+        <v>0.06410180500188645</v>
       </c>
       <c r="K20">
-        <v>2.226836406206644</v>
+        <v>4.488778817681464</v>
       </c>
       <c r="L20">
-        <v>0.1788188619601492</v>
+        <v>0.06257329375806364</v>
       </c>
       <c r="M20">
-        <v>0.6290973843657213</v>
+        <v>0.9183158138391718</v>
       </c>
       <c r="N20">
-        <v>1.83988033458423</v>
+        <v>0.8222765899142033</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1312948836358885</v>
+        <v>0.1041914603965495</v>
       </c>
       <c r="D21">
-        <v>0.07985466423925658</v>
+        <v>0.06328336609042395</v>
       </c>
       <c r="E21">
-        <v>0.1167960189273209</v>
+        <v>0.05336067334118511</v>
       </c>
       <c r="F21">
-        <v>2.539594675894051</v>
+        <v>1.566109202606071</v>
       </c>
       <c r="G21">
-        <v>1.864081505228739</v>
+        <v>1.285280005189833</v>
       </c>
       <c r="H21">
-        <v>1.590804202995599</v>
+        <v>0.7772706152800026</v>
       </c>
       <c r="I21">
-        <v>1.814716368203946</v>
+        <v>1.120642257373618</v>
       </c>
       <c r="J21">
-        <v>0.1798138266679565</v>
+        <v>0.06423537809233792</v>
       </c>
       <c r="K21">
-        <v>2.380868722976459</v>
+        <v>5.068154011898741</v>
       </c>
       <c r="L21">
-        <v>0.1780488997698342</v>
+        <v>0.06294283885606689</v>
       </c>
       <c r="M21">
-        <v>0.6575511096836379</v>
+        <v>1.031781776300669</v>
       </c>
       <c r="N21">
-        <v>1.818674921093759</v>
+        <v>0.7715027162999775</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1325798775447993</v>
+        <v>0.1102646698684708</v>
       </c>
       <c r="D22">
-        <v>0.08079103293007961</v>
+        <v>0.06713291902411811</v>
       </c>
       <c r="E22">
-        <v>0.1168483706684746</v>
+        <v>0.0549320252922918</v>
       </c>
       <c r="F22">
-        <v>2.54199252095664</v>
+        <v>1.631928872250413</v>
       </c>
       <c r="G22">
-        <v>1.867272245344736</v>
+        <v>1.345677000437121</v>
       </c>
       <c r="H22">
-        <v>1.587995282545421</v>
+        <v>0.7987582648711395</v>
       </c>
       <c r="I22">
-        <v>1.816263060454105</v>
+        <v>1.167689417953611</v>
       </c>
       <c r="J22">
-        <v>0.1792017668902623</v>
+        <v>0.06441860985737335</v>
       </c>
       <c r="K22">
-        <v>2.482072534531142</v>
+        <v>5.450720000184504</v>
       </c>
       <c r="L22">
-        <v>0.1775857804605074</v>
+        <v>0.06325329954979964</v>
       </c>
       <c r="M22">
-        <v>0.6763284481839094</v>
+        <v>1.106813241096582</v>
       </c>
       <c r="N22">
-        <v>1.805385632412559</v>
+        <v>0.7398014751402826</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1318910733901504</v>
+        <v>0.1070152565214499</v>
       </c>
       <c r="D23">
-        <v>0.08029007666458199</v>
+        <v>0.06507509738551676</v>
       </c>
       <c r="E23">
-        <v>0.1168178560703659</v>
+        <v>0.05408816428859708</v>
       </c>
       <c r="F23">
-        <v>2.540609421334295</v>
+        <v>1.596451368819416</v>
       </c>
       <c r="G23">
-        <v>1.8654820632363</v>
+        <v>1.313109944419949</v>
       </c>
       <c r="H23">
-        <v>1.58943674997866</v>
+        <v>0.7871181591664538</v>
       </c>
       <c r="I23">
-        <v>1.815362719330167</v>
+        <v>1.142324431527314</v>
       </c>
       <c r="J23">
-        <v>0.1795239969076086</v>
+        <v>0.06431170153487642</v>
       </c>
       <c r="K23">
-        <v>2.428009651270713</v>
+        <v>5.24614706257853</v>
       </c>
       <c r="L23">
-        <v>0.1778292934036152</v>
+        <v>0.06308108718457106</v>
       </c>
       <c r="M23">
-        <v>0.6662901474127452</v>
+        <v>1.066680915063493</v>
       </c>
       <c r="N23">
-        <v>1.812426243181925</v>
+        <v>0.7565806338374017</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1293480208196058</v>
+        <v>0.09487674598226192</v>
       </c>
       <c r="D24">
-        <v>0.07841930232053329</v>
+        <v>0.05734877330080934</v>
       </c>
       <c r="E24">
-        <v>0.1167589298222893</v>
+        <v>0.051002676659472</v>
       </c>
       <c r="F24">
-        <v>2.537640040123108</v>
+        <v>1.469404942908156</v>
       </c>
       <c r="G24">
-        <v>1.860616149153515</v>
+        <v>1.196729425177068</v>
       </c>
       <c r="H24">
-        <v>1.596163534001306</v>
+        <v>0.746653561609719</v>
       </c>
       <c r="I24">
-        <v>1.813596148591124</v>
+        <v>1.051616598708208</v>
       </c>
       <c r="J24">
-        <v>0.1808419550765912</v>
+        <v>0.06410116900705631</v>
       </c>
       <c r="K24">
-        <v>2.224327952029682</v>
+        <v>4.479368283211841</v>
       </c>
       <c r="L24">
-        <v>0.1788321248760418</v>
+        <v>0.06256837332648146</v>
       </c>
       <c r="M24">
-        <v>0.6286354033260508</v>
+        <v>0.9164746294554007</v>
       </c>
       <c r="N24">
-        <v>1.84023654191175</v>
+        <v>0.8231304659632315</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1267468152919236</v>
+        <v>0.08209371370692509</v>
       </c>
       <c r="D25">
-        <v>0.07645920157386854</v>
+        <v>0.04913559410478996</v>
       </c>
       <c r="E25">
-        <v>0.1168170590640063</v>
+        <v>0.04788819734728023</v>
       </c>
       <c r="F25">
-        <v>2.53927779342699</v>
+        <v>1.346024305887198</v>
       </c>
       <c r="G25">
-        <v>1.859443479737479</v>
+        <v>1.084094163874582</v>
       </c>
       <c r="H25">
-        <v>1.606125463860664</v>
+        <v>0.7098356339322294</v>
       </c>
       <c r="I25">
-        <v>1.815195896490032</v>
+        <v>0.9637675253238882</v>
       </c>
       <c r="J25">
-        <v>0.182472466538588</v>
+        <v>0.06425447505453974</v>
       </c>
       <c r="K25">
-        <v>2.00696299749734</v>
+        <v>3.666037037787532</v>
       </c>
       <c r="L25">
-        <v>0.1800866170159345</v>
+        <v>0.06229203995647481</v>
       </c>
       <c r="M25">
-        <v>0.5888061954995294</v>
+        <v>0.7575955600879425</v>
       </c>
       <c r="N25">
-        <v>1.872679785247346</v>
+        <v>0.9008350529969356</v>
       </c>
       <c r="O25">
         <v>0</v>
